--- a/www/collab_api/storage/uploads/05featuredemo.xlsx
+++ b/www/collab_api/storage/uploads/05featuredemo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -29,25 +29,28 @@
     <t>nom</t>
   </si>
   <si>
-    <t>worsthousing-no-lat-loc-sub_1363806463</t>
+    <t>worsthousing-no-lat-loc-sub_1363890280</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>kljhkljhlkjhlkhlkj</t>
+    <t>awfqwreqwerqwerw</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>khkljhkhlkhkljh</t>
+    <t>qwrqwerwqer</t>
   </si>
   <si>
     <t>categories</t>
   </si>
   <si>
-    <t>license</t>
+    <t>2,38,44</t>
+  </si>
+  <si>
+    <t>licence</t>
   </si>
   <si>
     <t>odbl</t>
@@ -56,27 +59,33 @@
     <t>URI</t>
   </si>
   <si>
-    <t>worsthousing-no-lat-loc-sub_1363806463.xls</t>
+    <t>worsthousing-no-lat-loc-sub_1363890280.xls</t>
   </si>
   <si>
     <t>etiquette</t>
   </si>
   <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>c_categorie</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>admin@admin.com</t>
+  </si>
+  <si>
     <t>borough</t>
   </si>
   <si>
-    <t>c_categorie</t>
-  </si>
-  <si>
     <t>street_number</t>
   </si>
   <si>
-    <t>street_name</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>council_district</t>
   </si>
   <si>
@@ -86,7 +95,7 @@
     <t>units</t>
   </si>
   <si>
-    <t>[lon,lat]</t>
+    <t>_lonlat</t>
   </si>
   <si>
     <t>_lon</t>
@@ -201,6 +210,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>rqwerwqerwq</t>
   </si>
   <si>
     <t>double</t>
@@ -542,7 +554,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,40 +598,48 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -653,63 +673,63 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>862</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -721,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>-73.98600599999997</v>
@@ -730,33 +750,33 @@
         <v>40.767027</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2">
         <v>10019</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>647</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -768,7 +788,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>-73.92442799999998</v>
@@ -777,33 +797,33 @@
         <v>40.86600199999999</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>10034</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1627</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -815,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4">
         <v>-73.949386</v>
@@ -824,33 +844,33 @@
         <v>40.822406</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>10031</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>2013</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -862,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>-73.94043099999999</v>
@@ -871,33 +891,33 @@
         <v>40.834475</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5">
         <v>10032</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -909,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>-73.93782199999998</v>
@@ -918,33 +938,33 @@
         <v>40.8405119</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>10032</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -956,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>-73.93766929999998</v>
@@ -965,33 +985,33 @@
         <v>40.8412255</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M7">
         <v>10032</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1003,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I8">
         <v>-73.93532900000002</v>
@@ -1012,33 +1032,33 @@
         <v>40.845145</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M8">
         <v>10033</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1050,7 +1070,7 @@
         <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>-73.92960800000003</v>
@@ -1059,33 +1079,33 @@
         <v>40.85291</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M9">
         <v>10040</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>3485</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1097,7 +1117,7 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>-73.95197739999998</v>
@@ -1106,19 +1126,19 @@
         <v>40.8248445</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M10">
         <v>10031</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1172,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1163,64 +1183,66 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2"/>
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C8"/>
     </row>
